--- a/data/trans_orig/IP1017-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1017-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9E06EE6-58D9-409E-B41A-12C2A59C49B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEA4346A-FF05-4A95-97CE-6EAC9561AF95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{69A025DF-AD82-43CB-8CAA-C670953BA3EB}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{3AB60830-C24C-4F83-808A-B128BBA15736}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -67,37 +67,61 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>99,41%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>99,39%</t>
   </si>
   <si>
     <t>99,7%</t>
   </si>
   <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -112,30 +136,6 @@
     <t>99,67%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
     <t>99,82%</t>
   </si>
   <si>
@@ -148,16 +148,34 @@
     <t>Menores según si padecen leucemia en 2012 (Tasa respuesta: 99,29%)</t>
   </si>
   <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
     <t>99,4%</t>
   </si>
   <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
   </si>
   <si>
     <t>99,32%</t>
@@ -166,27 +184,21 @@
     <t>99,66%</t>
   </si>
   <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
     <t>Menores según si padecen leucemia en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
     <t>99,42%</t>
   </si>
   <si>
@@ -196,28 +208,16 @@
     <t>99,71%</t>
   </si>
   <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
   </si>
   <si>
     <t>99,34%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
   </si>
 </sst>
 </file>
@@ -609,7 +609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C5B6D2-137D-4352-9A04-082376A142D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1AA3F3F-33C4-48D4-9D0B-312F7EA2D0E6}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -727,10 +727,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>322</v>
+        <v>33</v>
       </c>
       <c r="D4" s="7">
-        <v>212142</v>
+        <v>25444</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -742,10 +742,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>312</v>
+        <v>29</v>
       </c>
       <c r="I4" s="7">
-        <v>195163</v>
+        <v>22724</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -757,10 +757,10 @@
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>634</v>
+        <v>62</v>
       </c>
       <c r="N4" s="7">
-        <v>407305</v>
+        <v>48168</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
@@ -778,10 +778,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="7">
-        <v>322</v>
+        <v>33</v>
       </c>
       <c r="D5" s="7">
-        <v>212142</v>
+        <v>25444</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>13</v>
@@ -793,10 +793,10 @@
         <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>312</v>
+        <v>29</v>
       </c>
       <c r="I5" s="7">
-        <v>195163</v>
+        <v>22724</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>13</v>
@@ -808,10 +808,10 @@
         <v>13</v>
       </c>
       <c r="M5" s="7">
-        <v>634</v>
+        <v>62</v>
       </c>
       <c r="N5" s="7">
-        <v>407305</v>
+        <v>48168</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>13</v>
@@ -935,10 +935,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="D8" s="7">
-        <v>207824</v>
+        <v>212142</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
@@ -950,10 +950,10 @@
         <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="I8" s="7">
-        <v>209315</v>
+        <v>195163</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>11</v>
@@ -965,10 +965,10 @@
         <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>580</v>
+        <v>634</v>
       </c>
       <c r="N8" s="7">
-        <v>417139</v>
+        <v>407305</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>11</v>
@@ -986,10 +986,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="D9" s="7">
-        <v>207824</v>
+        <v>212142</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1001,10 +1001,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="I9" s="7">
-        <v>209315</v>
+        <v>195163</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1016,10 +1016,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>580</v>
+        <v>634</v>
       </c>
       <c r="N9" s="7">
-        <v>417139</v>
+        <v>407305</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1039,10 +1039,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="D10" s="7">
-        <v>25444</v>
+        <v>149657</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
@@ -1054,10 +1054,10 @@
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="I10" s="7">
-        <v>22724</v>
+        <v>137817</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
@@ -1069,10 +1069,10 @@
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>62</v>
+        <v>461</v>
       </c>
       <c r="N10" s="7">
-        <v>48168</v>
+        <v>287474</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
@@ -1090,10 +1090,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="D11" s="7">
-        <v>25444</v>
+        <v>149657</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -1105,10 +1105,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="I11" s="7">
-        <v>22724</v>
+        <v>137817</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -1120,10 +1120,10 @@
         <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>62</v>
+        <v>461</v>
       </c>
       <c r="N11" s="7">
-        <v>48168</v>
+        <v>287474</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -1143,10 +1143,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c r="D12" s="7">
-        <v>149657</v>
+        <v>207824</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>11</v>
@@ -1158,10 +1158,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="I12" s="7">
-        <v>137817</v>
+        <v>209315</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>11</v>
@@ -1173,10 +1173,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N12" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>11</v>
@@ -1194,10 +1194,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c r="D13" s="7">
-        <v>149657</v>
+        <v>207824</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>13</v>
@@ -1209,10 +1209,10 @@
         <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="I13" s="7">
-        <v>137817</v>
+        <v>209315</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>13</v>
@@ -1224,10 +1224,10 @@
         <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N13" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>13</v>
@@ -1361,7 +1361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F73C54C-3697-4789-986E-8D7E9F8124E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD408877-38C6-4C37-9167-B06696545273}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1479,10 +1479,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>321</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7">
-        <v>221978</v>
+        <v>25455</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1494,31 +1494,31 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>317</v>
+        <v>26</v>
       </c>
       <c r="I4" s="7">
-        <v>205398</v>
+        <v>22373</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>638</v>
+        <v>54</v>
       </c>
       <c r="N4" s="7">
-        <v>427376</v>
+        <v>47828</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -1530,10 +1530,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="7">
-        <v>321</v>
+        <v>28</v>
       </c>
       <c r="D5" s="7">
-        <v>221978</v>
+        <v>25455</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>13</v>
@@ -1545,10 +1545,10 @@
         <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>317</v>
+        <v>26</v>
       </c>
       <c r="I5" s="7">
-        <v>205398</v>
+        <v>22373</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>13</v>
@@ -1560,10 +1560,10 @@
         <v>13</v>
       </c>
       <c r="M5" s="7">
-        <v>638</v>
+        <v>54</v>
       </c>
       <c r="N5" s="7">
-        <v>427376</v>
+        <v>47828</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>13</v>
@@ -1592,7 +1592,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>13</v>
@@ -1607,7 +1607,7 @@
         <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>13</v>
@@ -1622,7 +1622,7 @@
         <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>13</v>
@@ -1687,46 +1687,46 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="D8" s="7">
-        <v>207082</v>
+        <v>221978</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="I8" s="7">
-        <v>210300</v>
+        <v>205398</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>556</v>
+        <v>638</v>
       </c>
       <c r="N8" s="7">
-        <v>417382</v>
+        <v>427376</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>13</v>
@@ -1738,10 +1738,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="D9" s="7">
-        <v>207082</v>
+        <v>221978</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1753,10 +1753,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="I9" s="7">
-        <v>210300</v>
+        <v>205398</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1768,10 +1768,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>556</v>
+        <v>638</v>
       </c>
       <c r="N9" s="7">
-        <v>417382</v>
+        <v>427376</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1791,46 +1791,46 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>28</v>
+        <v>255</v>
       </c>
       <c r="D10" s="7">
-        <v>25455</v>
+        <v>165985</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>26</v>
+        <v>241</v>
       </c>
       <c r="I10" s="7">
-        <v>22373</v>
+        <v>154839</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>54</v>
+        <v>496</v>
       </c>
       <c r="N10" s="7">
-        <v>47828</v>
+        <v>320824</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -1842,10 +1842,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>28</v>
+        <v>255</v>
       </c>
       <c r="D11" s="7">
-        <v>25455</v>
+        <v>165985</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -1857,10 +1857,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>26</v>
+        <v>241</v>
       </c>
       <c r="I11" s="7">
-        <v>22373</v>
+        <v>154839</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -1872,10 +1872,10 @@
         <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>54</v>
+        <v>496</v>
       </c>
       <c r="N11" s="7">
-        <v>47828</v>
+        <v>320824</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -1895,40 +1895,40 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="D12" s="7">
-        <v>165985</v>
+        <v>207082</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="I12" s="7">
-        <v>154839</v>
+        <v>210300</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="N12" s="7">
-        <v>320824</v>
+        <v>417382</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>11</v>
@@ -1946,10 +1946,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="D13" s="7">
-        <v>165985</v>
+        <v>207082</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>13</v>
@@ -1961,10 +1961,10 @@
         <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="I13" s="7">
-        <v>154839</v>
+        <v>210300</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>13</v>
@@ -1976,10 +1976,10 @@
         <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="N13" s="7">
-        <v>320824</v>
+        <v>417382</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>13</v>
@@ -2113,7 +2113,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D7248F-ECCE-46AC-BE72-1D425ACD70D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8ADC10F-5B82-4989-BEA7-C53E9D6A579A}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2231,10 +2231,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>332</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7">
-        <v>224359</v>
+        <v>25574</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2246,10 +2246,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>334</v>
+        <v>24</v>
       </c>
       <c r="I4" s="7">
-        <v>207247</v>
+        <v>22527</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -2261,16 +2261,16 @@
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>666</v>
+        <v>54</v>
       </c>
       <c r="N4" s="7">
-        <v>431606</v>
+        <v>48101</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2282,10 +2282,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="7">
-        <v>332</v>
+        <v>30</v>
       </c>
       <c r="D5" s="7">
-        <v>224359</v>
+        <v>25574</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>13</v>
@@ -2297,10 +2297,10 @@
         <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>334</v>
+        <v>24</v>
       </c>
       <c r="I5" s="7">
-        <v>207247</v>
+        <v>22527</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>13</v>
@@ -2312,10 +2312,10 @@
         <v>13</v>
       </c>
       <c r="M5" s="7">
-        <v>666</v>
+        <v>54</v>
       </c>
       <c r="N5" s="7">
-        <v>431606</v>
+        <v>48101</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>13</v>
@@ -2344,7 +2344,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>13</v>
@@ -2359,7 +2359,7 @@
         <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>13</v>
@@ -2374,7 +2374,7 @@
         <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>13</v>
@@ -2439,46 +2439,46 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="D8" s="7">
-        <v>205736</v>
+        <v>224359</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="7">
+        <v>334</v>
+      </c>
+      <c r="I8" s="7">
+        <v>207247</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="7">
-        <v>281</v>
-      </c>
-      <c r="I8" s="7">
-        <v>207420</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="L8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>571</v>
+        <v>666</v>
       </c>
       <c r="N8" s="7">
-        <v>413156</v>
+        <v>431606</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>13</v>
@@ -2490,10 +2490,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="D9" s="7">
-        <v>205736</v>
+        <v>224359</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -2505,10 +2505,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="I9" s="7">
-        <v>207420</v>
+        <v>207247</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -2520,10 +2520,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>571</v>
+        <v>666</v>
       </c>
       <c r="N9" s="7">
-        <v>413156</v>
+        <v>431606</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -2543,46 +2543,46 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="D10" s="7">
-        <v>25574</v>
+        <v>166673</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c r="I10" s="7">
-        <v>22527</v>
+        <v>155997</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>54</v>
+        <v>507</v>
       </c>
       <c r="N10" s="7">
-        <v>48101</v>
+        <v>322670</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -2594,10 +2594,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="D11" s="7">
-        <v>25574</v>
+        <v>166673</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -2609,10 +2609,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c r="I11" s="7">
-        <v>22527</v>
+        <v>155997</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -2624,10 +2624,10 @@
         <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>54</v>
+        <v>507</v>
       </c>
       <c r="N11" s="7">
-        <v>48101</v>
+        <v>322670</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -2647,46 +2647,46 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="D12" s="7">
-        <v>166673</v>
+        <v>205736</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="I12" s="7">
-        <v>155997</v>
+        <v>207420</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N12" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>13</v>
@@ -2698,10 +2698,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="D13" s="7">
-        <v>166673</v>
+        <v>205736</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>13</v>
@@ -2713,10 +2713,10 @@
         <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="I13" s="7">
-        <v>155997</v>
+        <v>207420</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>13</v>
@@ -2728,10 +2728,10 @@
         <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N13" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>13</v>

--- a/data/trans_orig/IP1017-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1017-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEA4346A-FF05-4A95-97CE-6EAC9561AF95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD0EC265-72EB-4B7C-A24A-AA41D8DF942F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{3AB60830-C24C-4F83-808A-B128BBA15736}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B4E9FA3C-BA5C-4CC6-81E4-38495D34CD23}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="61">
   <si>
     <t>Menores según si padecen leucemia en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>99,91%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
   <si>
     <t>Menores según si padecen leucemia en 2012 (Tasa respuesta: 99,29%)</t>
@@ -228,7 +231,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -324,39 +327,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -408,7 +411,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -519,13 +522,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -534,6 +530,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -598,19 +601,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1AA3F3F-33C4-48D4-9D0B-312F7EA2D0E6}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDC9C921-D9BA-465A-A3F1-697DCBEE6EA7}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1343,6 +1366,11 @@
         <v>13</v>
       </c>
     </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A8:A9"/>
@@ -1361,8 +1389,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD408877-38C6-4C37-9167-B06696545273}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0258CD76-C8C6-4C96-9BEE-81D3645C1B29}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1378,7 +1406,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1488,7 +1516,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -1503,7 +1531,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -1518,7 +1546,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -1592,7 +1620,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>13</v>
@@ -1607,7 +1635,7 @@
         <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>13</v>
@@ -1622,7 +1650,7 @@
         <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>13</v>
@@ -1690,13 +1718,13 @@
         <v>321</v>
       </c>
       <c r="D8" s="7">
-        <v>221978</v>
+        <v>221977</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>13</v>
@@ -1711,7 +1739,7 @@
         <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>13</v>
@@ -1741,7 +1769,7 @@
         <v>321</v>
       </c>
       <c r="D9" s="7">
-        <v>221978</v>
+        <v>221977</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1800,7 +1828,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -1815,7 +1843,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -1830,7 +1858,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -1904,7 +1932,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>13</v>
@@ -1934,7 +1962,7 @@
         <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>13</v>
@@ -2093,6 +2121,11 @@
       </c>
       <c r="Q15" s="7" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2113,8 +2146,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8ADC10F-5B82-4989-BEA7-C53E9D6A579A}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4132EEB7-1880-435A-8673-B53D161F7DA4}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2130,7 +2163,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2240,7 +2273,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -2255,7 +2288,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -2270,7 +2303,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2344,7 +2377,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>13</v>
@@ -2359,7 +2392,7 @@
         <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>13</v>
@@ -2374,7 +2407,7 @@
         <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>13</v>
@@ -2448,7 +2481,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>13</v>
@@ -2463,7 +2496,7 @@
         <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>13</v>
@@ -2478,7 +2511,7 @@
         <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>13</v>
@@ -2552,7 +2585,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -2567,7 +2600,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -2582,7 +2615,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -2656,7 +2689,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>13</v>
@@ -2671,7 +2704,7 @@
         <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>13</v>
@@ -2686,7 +2719,7 @@
         <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>13</v>
@@ -2845,6 +2878,11 @@
       </c>
       <c r="Q15" s="7" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1017-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1017-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD0EC265-72EB-4B7C-A24A-AA41D8DF942F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6CD6628-A1FD-47E3-80D9-AE8E6562C43F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B4E9FA3C-BA5C-4CC6-81E4-38495D34CD23}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9ACB6816-43F8-42DB-BD4A-8FBFF95F83E4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No</t>
@@ -88,7 +88,7 @@
     <t>96,96%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>99,01%</t>
@@ -100,7 +100,7 @@
     <t>99,48%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>99,41%</t>
@@ -112,7 +112,7 @@
     <t>99,7%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>99,18%</t>
@@ -187,7 +187,7 @@
     <t>99,66%</t>
   </si>
   <si>
-    <t>Menores según si padecen leucemia en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>Menores según si padecen leucemia en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>93,85%</t>
@@ -632,7 +632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDC9C921-D9BA-465A-A3F1-697DCBEE6EA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A72B67C-6236-49FA-9D65-3CFF83ED0B8A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1389,7 +1389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0258CD76-C8C6-4C96-9BEE-81D3645C1B29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD9572F-0755-4BEB-B9C9-5DEDB8A15AEB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1718,7 +1718,7 @@
         <v>321</v>
       </c>
       <c r="D8" s="7">
-        <v>221977</v>
+        <v>221978</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
@@ -1769,7 +1769,7 @@
         <v>321</v>
       </c>
       <c r="D9" s="7">
-        <v>221977</v>
+        <v>221978</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -2146,7 +2146,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4132EEB7-1880-435A-8673-B53D161F7DA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4467889-F1DB-4419-B9C5-CD2CF13A47B9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/IP1017-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1017-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6CD6628-A1FD-47E3-80D9-AE8E6562C43F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A061FFCF-0FA2-4CD8-9720-A728EB006C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9ACB6816-43F8-42DB-BD4A-8FBFF95F83E4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5EDBA10F-FB26-435F-80EC-16FCA5E1B723}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="53">
   <si>
     <t>Menores según si padecen leucemia en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>No</t>
@@ -76,72 +76,60 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>94,39%</t>
+    <t>99,06%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
+    <t>99,39%</t>
+  </si>
+  <si>
     <t>99,41%</t>
   </si>
   <si>
-    <t>99,39%</t>
-  </si>
-  <si>
     <t>99,7%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>99,17%</t>
   </si>
   <si>
     <t>99,18%</t>
   </si>
   <si>
-    <t>99,17%</t>
-  </si>
-  <si>
     <t>99,58%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>99,3%</t>
+  </si>
+  <si>
     <t>99,37%</t>
   </si>
   <si>
-    <t>99,3%</t>
-  </si>
-  <si>
     <t>99,67%</t>
   </si>
   <si>
+    <t>99,81%</t>
+  </si>
+  <si>
     <t>99,82%</t>
   </si>
   <si>
-    <t>99,81%</t>
-  </si>
-  <si>
     <t>99,91%</t>
   </si>
   <si>
@@ -151,33 +139,24 @@
     <t>Menores según si padecen leucemia en 2012 (Tasa respuesta: 99,29%)</t>
   </si>
   <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
   </si>
   <si>
     <t>99,4%</t>
   </si>
   <si>
+    <t>99,21%</t>
+  </si>
+  <si>
     <t>99,25%</t>
   </si>
   <si>
-    <t>99,21%</t>
-  </si>
-  <si>
     <t>99,61%</t>
   </si>
   <si>
@@ -190,31 +169,28 @@
     <t>Menores según si padecen leucemia en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
   </si>
   <si>
     <t>99,42%</t>
   </si>
   <si>
-    <t>99,43%</t>
-  </si>
-  <si>
     <t>99,71%</t>
   </si>
   <si>
+    <t>99,26%</t>
+  </si>
+  <si>
     <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
   </si>
   <si>
     <t>99,62%</t>
@@ -632,8 +608,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A72B67C-6236-49FA-9D65-3CFF83ED0B8A}">
-  <dimension ref="A1:Q16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFBAE8B-91B4-4EA9-ADD1-A015EAE0E6C9}">
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -750,10 +726,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="D4" s="7">
-        <v>25444</v>
+        <v>138726</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -765,10 +741,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="I4" s="7">
-        <v>22724</v>
+        <v>153077</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -780,10 +756,10 @@
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>62</v>
+        <v>429</v>
       </c>
       <c r="N4" s="7">
-        <v>48168</v>
+        <v>291803</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
@@ -801,10 +777,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="7">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="D5" s="7">
-        <v>25444</v>
+        <v>138726</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>13</v>
@@ -816,10 +792,10 @@
         <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="I5" s="7">
-        <v>22724</v>
+        <v>153077</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>13</v>
@@ -831,10 +807,10 @@
         <v>13</v>
       </c>
       <c r="M5" s="7">
-        <v>62</v>
+        <v>429</v>
       </c>
       <c r="N5" s="7">
-        <v>48168</v>
+        <v>291803</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>13</v>
@@ -854,10 +830,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="7">
-        <v>193</v>
+        <v>312</v>
       </c>
       <c r="D6" s="7">
-        <v>127633</v>
+        <v>195163</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>11</v>
@@ -869,10 +845,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>174</v>
+        <v>322</v>
       </c>
       <c r="I6" s="7">
-        <v>116002</v>
+        <v>212142</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>11</v>
@@ -884,10 +860,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>367</v>
+        <v>634</v>
       </c>
       <c r="N6" s="7">
-        <v>243635</v>
+        <v>407305</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>11</v>
@@ -905,10 +881,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>193</v>
+        <v>312</v>
       </c>
       <c r="D7" s="7">
-        <v>127633</v>
+        <v>195163</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -920,10 +896,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>174</v>
+        <v>322</v>
       </c>
       <c r="I7" s="7">
-        <v>116002</v>
+        <v>212142</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -935,10 +911,10 @@
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>367</v>
+        <v>634</v>
       </c>
       <c r="N7" s="7">
-        <v>243635</v>
+        <v>407305</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -958,10 +934,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>322</v>
+        <v>229</v>
       </c>
       <c r="D8" s="7">
-        <v>212142</v>
+        <v>137817</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
@@ -973,10 +949,10 @@
         <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>312</v>
+        <v>232</v>
       </c>
       <c r="I8" s="7">
-        <v>195163</v>
+        <v>149657</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>11</v>
@@ -988,10 +964,10 @@
         <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>634</v>
+        <v>461</v>
       </c>
       <c r="N8" s="7">
-        <v>407305</v>
+        <v>287474</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>11</v>
@@ -1009,10 +985,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>322</v>
+        <v>229</v>
       </c>
       <c r="D9" s="7">
-        <v>212142</v>
+        <v>137817</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1024,10 +1000,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>312</v>
+        <v>232</v>
       </c>
       <c r="I9" s="7">
-        <v>195163</v>
+        <v>149657</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1039,10 +1015,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>634</v>
+        <v>461</v>
       </c>
       <c r="N9" s="7">
-        <v>407305</v>
+        <v>287474</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1062,10 +1038,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="D10" s="7">
-        <v>149657</v>
+        <v>209315</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
@@ -1077,10 +1053,10 @@
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>229</v>
+        <v>306</v>
       </c>
       <c r="I10" s="7">
-        <v>137817</v>
+        <v>207824</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
@@ -1092,10 +1068,10 @@
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N10" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
@@ -1113,10 +1089,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="D11" s="7">
-        <v>149657</v>
+        <v>209315</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -1128,10 +1104,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>229</v>
+        <v>306</v>
       </c>
       <c r="I11" s="7">
-        <v>137817</v>
+        <v>207824</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -1143,10 +1119,10 @@
         <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N11" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -1160,52 +1136,52 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>306</v>
+        <v>1018</v>
       </c>
       <c r="D12" s="7">
-        <v>207824</v>
+        <v>681021</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1086</v>
+      </c>
+      <c r="I12" s="7">
+        <v>722700</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7">
-        <v>274</v>
-      </c>
-      <c r="I12" s="7">
-        <v>209315</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="7">
+        <v>2104</v>
+      </c>
+      <c r="N12" s="7">
+        <v>1403721</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M12" s="7">
-        <v>580</v>
-      </c>
-      <c r="N12" s="7">
-        <v>417139</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>13</v>
@@ -1217,10 +1193,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>306</v>
+        <v>1018</v>
       </c>
       <c r="D13" s="7">
-        <v>207824</v>
+        <v>681021</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>13</v>
@@ -1232,10 +1208,10 @@
         <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>274</v>
+        <v>1086</v>
       </c>
       <c r="I13" s="7">
-        <v>209315</v>
+        <v>722700</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>13</v>
@@ -1247,10 +1223,10 @@
         <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>580</v>
+        <v>2104</v>
       </c>
       <c r="N13" s="7">
-        <v>417139</v>
+        <v>1403721</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>13</v>
@@ -1263,120 +1239,15 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D14" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I14" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M14" s="7">
-        <v>2104</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1403721</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D15" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I15" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
-        <v>2104</v>
-      </c>
-      <c r="N15" s="7">
-        <v>1403721</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>35</v>
+      <c r="A14" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1389,8 +1260,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD9572F-0755-4BEB-B9C9-5DEDB8A15AEB}">
-  <dimension ref="A1:Q16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31D961B-F70A-4A3D-95DD-B4C6756DBACA}">
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1406,7 +1277,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1507,46 +1378,46 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>28</v>
+        <v>185</v>
       </c>
       <c r="D4" s="7">
-        <v>25455</v>
+        <v>136391</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="I4" s="7">
-        <v>22373</v>
+        <v>153098</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>54</v>
+        <v>394</v>
       </c>
       <c r="N4" s="7">
-        <v>47828</v>
+        <v>289489</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -1558,10 +1429,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="7">
-        <v>28</v>
+        <v>185</v>
       </c>
       <c r="D5" s="7">
-        <v>25455</v>
+        <v>136391</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>13</v>
@@ -1573,10 +1444,10 @@
         <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="I5" s="7">
-        <v>22373</v>
+        <v>153098</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>13</v>
@@ -1588,10 +1459,10 @@
         <v>13</v>
       </c>
       <c r="M5" s="7">
-        <v>54</v>
+        <v>394</v>
       </c>
       <c r="N5" s="7">
-        <v>47828</v>
+        <v>289489</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>13</v>
@@ -1611,46 +1482,46 @@
         <v>10</v>
       </c>
       <c r="C6" s="7">
-        <v>181</v>
+        <v>317</v>
       </c>
       <c r="D6" s="7">
-        <v>127643</v>
+        <v>205398</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>159</v>
+        <v>321</v>
       </c>
       <c r="I6" s="7">
-        <v>114018</v>
+        <v>221977</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>340</v>
+        <v>638</v>
       </c>
       <c r="N6" s="7">
-        <v>241661</v>
+        <v>427376</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>13</v>
@@ -1662,10 +1533,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>181</v>
+        <v>317</v>
       </c>
       <c r="D7" s="7">
-        <v>127643</v>
+        <v>205398</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -1677,10 +1548,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>159</v>
+        <v>321</v>
       </c>
       <c r="I7" s="7">
-        <v>114018</v>
+        <v>221977</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -1692,10 +1563,10 @@
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>340</v>
+        <v>638</v>
       </c>
       <c r="N7" s="7">
-        <v>241661</v>
+        <v>427376</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -1715,46 +1586,46 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>321</v>
+        <v>241</v>
       </c>
       <c r="D8" s="7">
-        <v>221978</v>
+        <v>154839</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>317</v>
+        <v>255</v>
       </c>
       <c r="I8" s="7">
-        <v>205398</v>
+        <v>165985</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>638</v>
+        <v>496</v>
       </c>
       <c r="N8" s="7">
-        <v>427376</v>
+        <v>320824</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>13</v>
@@ -1766,10 +1637,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>321</v>
+        <v>241</v>
       </c>
       <c r="D9" s="7">
-        <v>221978</v>
+        <v>154839</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1781,10 +1652,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>317</v>
+        <v>255</v>
       </c>
       <c r="I9" s="7">
-        <v>205398</v>
+        <v>165985</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1796,10 +1667,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>638</v>
+        <v>496</v>
       </c>
       <c r="N9" s="7">
-        <v>427376</v>
+        <v>320824</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1819,46 +1690,46 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="D10" s="7">
-        <v>165985</v>
+        <v>210300</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="I10" s="7">
-        <v>154839</v>
+        <v>207082</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="N10" s="7">
-        <v>320824</v>
+        <v>417382</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -1870,10 +1741,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="D11" s="7">
-        <v>165985</v>
+        <v>210300</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -1885,10 +1756,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="I11" s="7">
-        <v>154839</v>
+        <v>207082</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -1900,10 +1771,10 @@
         <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="N11" s="7">
-        <v>320824</v>
+        <v>417382</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -1917,52 +1788,52 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>281</v>
+        <v>1018</v>
       </c>
       <c r="D12" s="7">
-        <v>207082</v>
+        <v>706928</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>275</v>
+        <v>1066</v>
       </c>
       <c r="I12" s="7">
-        <v>210300</v>
+        <v>748142</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="7">
+        <v>2084</v>
+      </c>
+      <c r="N12" s="7">
+        <v>1455070</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M12" s="7">
-        <v>556</v>
-      </c>
-      <c r="N12" s="7">
-        <v>417382</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>13</v>
@@ -1974,10 +1845,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>281</v>
+        <v>1018</v>
       </c>
       <c r="D13" s="7">
-        <v>207082</v>
+        <v>706928</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>13</v>
@@ -1989,10 +1860,10 @@
         <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>275</v>
+        <v>1066</v>
       </c>
       <c r="I13" s="7">
-        <v>210300</v>
+        <v>748142</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>13</v>
@@ -2004,10 +1875,10 @@
         <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>556</v>
+        <v>2084</v>
       </c>
       <c r="N13" s="7">
-        <v>417382</v>
+        <v>1455070</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>13</v>
@@ -2020,120 +1891,15 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="7">
-        <v>1066</v>
-      </c>
-      <c r="D14" s="7">
-        <v>748142</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I14" s="7">
-        <v>706928</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M14" s="7">
-        <v>2084</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1455070</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="7">
-        <v>1066</v>
-      </c>
-      <c r="D15" s="7">
-        <v>748142</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I15" s="7">
-        <v>706928</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
-        <v>2084</v>
-      </c>
-      <c r="N15" s="7">
-        <v>1455070</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>35</v>
+      <c r="A14" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2146,8 +1912,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4467889-F1DB-4419-B9C5-CD2CF13A47B9}">
-  <dimension ref="A1:Q16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E8B952-B3AB-4F54-8562-994C6436B9E4}">
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2163,7 +1929,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2264,46 +2030,46 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="D4" s="7">
-        <v>25574</v>
+        <v>133707</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>24</v>
+        <v>195</v>
       </c>
       <c r="I4" s="7">
-        <v>22527</v>
+        <v>148076</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>54</v>
+        <v>382</v>
       </c>
       <c r="N4" s="7">
-        <v>48101</v>
+        <v>281783</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2315,10 +2081,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="7">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="D5" s="7">
-        <v>25574</v>
+        <v>133707</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>13</v>
@@ -2330,10 +2096,10 @@
         <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>24</v>
+        <v>195</v>
       </c>
       <c r="I5" s="7">
-        <v>22527</v>
+        <v>148076</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>13</v>
@@ -2345,10 +2111,10 @@
         <v>13</v>
       </c>
       <c r="M5" s="7">
-        <v>54</v>
+        <v>382</v>
       </c>
       <c r="N5" s="7">
-        <v>48101</v>
+        <v>281783</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>13</v>
@@ -2368,46 +2134,46 @@
         <v>10</v>
       </c>
       <c r="C6" s="7">
-        <v>165</v>
+        <v>334</v>
       </c>
       <c r="D6" s="7">
-        <v>122502</v>
+        <v>207247</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>163</v>
+        <v>332</v>
       </c>
       <c r="I6" s="7">
-        <v>111180</v>
+        <v>224359</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>328</v>
+        <v>666</v>
       </c>
       <c r="N6" s="7">
-        <v>233682</v>
+        <v>431606</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>13</v>
@@ -2419,10 +2185,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>165</v>
+        <v>334</v>
       </c>
       <c r="D7" s="7">
-        <v>122502</v>
+        <v>207247</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -2434,10 +2200,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>163</v>
+        <v>332</v>
       </c>
       <c r="I7" s="7">
-        <v>111180</v>
+        <v>224359</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -2449,10 +2215,10 @@
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>328</v>
+        <v>666</v>
       </c>
       <c r="N7" s="7">
-        <v>233682</v>
+        <v>431606</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -2472,46 +2238,46 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>332</v>
+        <v>259</v>
       </c>
       <c r="D8" s="7">
-        <v>224359</v>
+        <v>155997</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>334</v>
+        <v>248</v>
       </c>
       <c r="I8" s="7">
-        <v>207247</v>
+        <v>166673</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>666</v>
+        <v>507</v>
       </c>
       <c r="N8" s="7">
-        <v>431606</v>
+        <v>322670</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>13</v>
@@ -2523,10 +2289,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>332</v>
+        <v>259</v>
       </c>
       <c r="D9" s="7">
-        <v>224359</v>
+        <v>155997</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -2538,10 +2304,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>334</v>
+        <v>248</v>
       </c>
       <c r="I9" s="7">
-        <v>207247</v>
+        <v>166673</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -2553,10 +2319,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>666</v>
+        <v>507</v>
       </c>
       <c r="N9" s="7">
-        <v>431606</v>
+        <v>322670</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -2576,46 +2342,46 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="D10" s="7">
-        <v>166673</v>
+        <v>207420</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="I10" s="7">
-        <v>155997</v>
+        <v>205736</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N10" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -2627,10 +2393,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="D11" s="7">
-        <v>166673</v>
+        <v>207420</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -2642,10 +2408,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="I11" s="7">
-        <v>155997</v>
+        <v>205736</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -2657,10 +2423,10 @@
         <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N11" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -2674,52 +2440,52 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>290</v>
+        <v>1061</v>
       </c>
       <c r="D12" s="7">
-        <v>205736</v>
+        <v>704371</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>281</v>
+        <v>1065</v>
       </c>
       <c r="I12" s="7">
-        <v>207420</v>
+        <v>744844</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>571</v>
+        <v>2126</v>
       </c>
       <c r="N12" s="7">
-        <v>413156</v>
+        <v>1449215</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>13</v>
@@ -2731,10 +2497,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>290</v>
+        <v>1061</v>
       </c>
       <c r="D13" s="7">
-        <v>205736</v>
+        <v>704371</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>13</v>
@@ -2746,10 +2512,10 @@
         <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>281</v>
+        <v>1065</v>
       </c>
       <c r="I13" s="7">
-        <v>207420</v>
+        <v>744844</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>13</v>
@@ -2761,10 +2527,10 @@
         <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>571</v>
+        <v>2126</v>
       </c>
       <c r="N13" s="7">
-        <v>413156</v>
+        <v>1449215</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>13</v>
@@ -2777,120 +2543,15 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D14" s="7">
-        <v>744844</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I14" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M14" s="7">
-        <v>2126</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1449215</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D15" s="7">
-        <v>744844</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I15" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
-        <v>2126</v>
-      </c>
-      <c r="N15" s="7">
-        <v>1449215</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>35</v>
+      <c r="A14" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
